--- a/INTERMAC/Master 30 инв.№55550056/ТО Master 30 инв.№55550056 на 2022 год.xlsx
+++ b/INTERMAC/Master 30 инв.№55550056/ТО Master 30 инв.№55550056 на 2022 год.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Операторы" sheetId="1" state="visible" r:id="rId2"/>
@@ -540,9 +540,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2330280</xdr:colOff>
+      <xdr:colOff>2329920</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>5073480</xdr:rowOff>
+      <xdr:rowOff>5073120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -556,7 +556,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8842320" y="2124000"/>
-          <a:ext cx="2330280" cy="5073480"/>
+          <a:ext cx="2329920" cy="5073120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -573,11 +573,11 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2570040</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1368000</xdr:rowOff>
+      <xdr:rowOff>1368360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4912920</xdr:colOff>
+      <xdr:colOff>4912560</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>5058000</xdr:rowOff>
     </xdr:to>
@@ -592,8 +592,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="16207800">
-          <a:off x="10046880" y="3473280"/>
-          <a:ext cx="5073480" cy="2342880"/>
+          <a:off x="10046880" y="3474000"/>
+          <a:ext cx="5073120" cy="2342520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -614,9 +614,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5073480</xdr:colOff>
+      <xdr:colOff>5073120</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>2330280</xdr:rowOff>
+      <xdr:rowOff>2329920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -630,7 +630,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8842320" y="9635400"/>
-          <a:ext cx="5073480" cy="2330280"/>
+          <a:ext cx="5073120" cy="2329920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -651,9 +651,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5073480</xdr:colOff>
+      <xdr:colOff>5073120</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>2342880</xdr:rowOff>
+      <xdr:rowOff>2342520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -667,7 +667,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8842320" y="16882200"/>
-          <a:ext cx="5073480" cy="2342880"/>
+          <a:ext cx="5073120" cy="2342520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -688,9 +688,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5073480</xdr:colOff>
+      <xdr:colOff>5073120</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>2342880</xdr:rowOff>
+      <xdr:rowOff>2342520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -704,7 +704,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8842320" y="19272240"/>
-          <a:ext cx="5073480" cy="2342880"/>
+          <a:ext cx="5073120" cy="2342520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -725,9 +725,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5076360</xdr:colOff>
+      <xdr:colOff>5076000</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2345760</xdr:rowOff>
+      <xdr:rowOff>2345400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -741,7 +741,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8842320" y="7203600"/>
-          <a:ext cx="5076360" cy="2345760"/>
+          <a:ext cx="5076000" cy="2345400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -762,9 +762,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5076360</xdr:colOff>
+      <xdr:colOff>5076000</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>2345760</xdr:rowOff>
+      <xdr:rowOff>2345400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -778,7 +778,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8842320" y="12057480"/>
-          <a:ext cx="5076360" cy="2345760"/>
+          <a:ext cx="5076000" cy="2345400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -799,9 +799,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2341080</xdr:colOff>
+      <xdr:colOff>2340720</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>5077800</xdr:rowOff>
+      <xdr:rowOff>5077440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -815,7 +815,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8837280" y="21662280"/>
-          <a:ext cx="2346120" cy="5077800"/>
+          <a:ext cx="2345760" cy="5077440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -836,9 +836,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4922640</xdr:colOff>
+      <xdr:colOff>4922280</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>5103000</xdr:rowOff>
+      <xdr:rowOff>5102640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -852,7 +852,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11419200" y="21687480"/>
-          <a:ext cx="2345760" cy="5077800"/>
+          <a:ext cx="2345400" cy="5077440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -873,9 +873,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5078880</xdr:colOff>
+      <xdr:colOff>5078520</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>4739760</xdr:rowOff>
+      <xdr:rowOff>4739400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -889,7 +889,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8842320" y="14448960"/>
-          <a:ext cx="5078880" cy="2348280"/>
+          <a:ext cx="5078520" cy="2347920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -915,9 +915,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3660120</xdr:colOff>
+      <xdr:colOff>3659760</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>5113800</xdr:rowOff>
+      <xdr:rowOff>5113440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -931,7 +931,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9198720" y="15257520"/>
-          <a:ext cx="2342880" cy="5073480"/>
+          <a:ext cx="2342520" cy="5073120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -952,9 +952,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5073480</xdr:colOff>
+      <xdr:colOff>5073120</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>2357640</xdr:rowOff>
+      <xdr:rowOff>2357280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -967,8 +967,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7881480" y="26243280"/>
-          <a:ext cx="5073480" cy="2342880"/>
+          <a:off x="7881480" y="28646280"/>
+          <a:ext cx="5073120" cy="2342520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -989,9 +989,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5073480</xdr:colOff>
+      <xdr:colOff>5073120</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>2357640</xdr:rowOff>
+      <xdr:rowOff>2357280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1004,8 +1004,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7881480" y="34734600"/>
-          <a:ext cx="5073480" cy="2342880"/>
+          <a:off x="7881480" y="37137600"/>
+          <a:ext cx="5073120" cy="2342520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1026,9 +1026,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5073480</xdr:colOff>
+      <xdr:colOff>5073120</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>2357280</xdr:rowOff>
+      <xdr:rowOff>2356920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1041,8 +1041,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7881480" y="37177200"/>
-          <a:ext cx="5073480" cy="2342880"/>
+          <a:off x="7881480" y="39579840"/>
+          <a:ext cx="5073120" cy="2342520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1058,18 +1058,18 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>14760</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5073480</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>2357640</xdr:rowOff>
+      <xdr:colOff>5073120</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2356920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Изображение 18" descr=""/>
+        <xdr:cNvPr id="14" name="Изображение 19" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1078,8 +1078,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7881480" y="20349360"/>
-          <a:ext cx="5073480" cy="2342880"/>
+          <a:off x="7881480" y="41938200"/>
+          <a:ext cx="5073120" cy="2342520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1094,19 +1094,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>14400</xdr:rowOff>
+      <xdr:colOff>18000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5073480</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>2357280</xdr:rowOff>
+      <xdr:colOff>5063040</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2558160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Изображение 19" descr=""/>
+        <xdr:cNvPr id="15" name="Изображение 9" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1115,8 +1115,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7881480" y="39535560"/>
-          <a:ext cx="5073480" cy="2342880"/>
+          <a:off x="7899480" y="12699000"/>
+          <a:ext cx="5045040" cy="2491920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1131,19 +1131,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>18000</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>66240</xdr:rowOff>
+      <xdr:colOff>1329480</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5063400</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>2558520</xdr:rowOff>
+      <xdr:colOff>3649680</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>3403080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Изображение 9" descr=""/>
+        <xdr:cNvPr id="16" name="Изображение 6" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1152,8 +1152,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7899480" y="12699000"/>
-          <a:ext cx="5045400" cy="2492280"/>
+          <a:off x="9210960" y="25183800"/>
+          <a:ext cx="2320200" cy="3336120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1168,19 +1168,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1329480</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>66960</xdr:rowOff>
+      <xdr:colOff>1058040</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>31680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3650040</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>3403440</xdr:rowOff>
+      <xdr:colOff>3378960</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>4270320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Изображение 6" descr=""/>
+        <xdr:cNvPr id="17" name="Изображение 12" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1189,8 +1189,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9210960" y="22780800"/>
-          <a:ext cx="2320560" cy="3336480"/>
+          <a:off x="8939520" y="8356680"/>
+          <a:ext cx="2320920" cy="4238640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1205,19 +1205,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1058040</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>31680</xdr:rowOff>
+      <xdr:colOff>1221840</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>17280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3379320</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>4270680</xdr:rowOff>
+      <xdr:colOff>3555360</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>4268520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Изображение 12" descr=""/>
+        <xdr:cNvPr id="18" name="Изображение 7" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1226,8 +1226,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8939520" y="8356680"/>
-          <a:ext cx="2321280" cy="4239000"/>
+          <a:off x="9103320" y="1463040"/>
+          <a:ext cx="2333520" cy="4251240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1242,19 +1242,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1221840</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>17280</xdr:rowOff>
+      <xdr:colOff>1563120</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>31680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3555720</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>4268880</xdr:rowOff>
+      <xdr:colOff>3871440</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>3635280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Изображение 7" descr=""/>
+        <xdr:cNvPr id="19" name="Изображение 17" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1263,8 +1263,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9103320" y="1463040"/>
-          <a:ext cx="2333880" cy="4251600"/>
+          <a:off x="9444600" y="31053240"/>
+          <a:ext cx="2308320" cy="3603600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1279,19 +1279,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1563120</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>31680</xdr:rowOff>
+      <xdr:colOff>1371240</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>20520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3871800</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>3635640</xdr:rowOff>
+      <xdr:colOff>3679560</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>3624120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Изображение 17" descr=""/>
+        <xdr:cNvPr id="20" name="Изображение 20" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1300,8 +1300,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9444600" y="28650600"/>
-          <a:ext cx="2308680" cy="3603960"/>
+          <a:off x="9252720" y="44313840"/>
+          <a:ext cx="2308320" cy="3603600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1316,19 +1316,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1371240</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:colOff>56160</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>60840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3679920</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>3624480</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>23040</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2408760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Изображение 20" descr=""/>
+        <xdr:cNvPr id="21" name="Изображение 23" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1337,8 +1337,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9252720" y="41910840"/>
-          <a:ext cx="2308680" cy="3603960"/>
+          <a:off x="7937640" y="5848920"/>
+          <a:ext cx="5075640" cy="2347920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1353,19 +1353,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>56160</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>60840</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>23400</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>2409120</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5079240</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2348640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Изображение 23" descr=""/>
+        <xdr:cNvPr id="22" name="Изображение 13" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1374,8 +1374,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7937640" y="5848920"/>
-          <a:ext cx="5076000" cy="2348280"/>
+          <a:off x="7881480" y="34743240"/>
+          <a:ext cx="5079240" cy="2348640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1391,18 +1391,18 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>5079600</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>2349000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Изображение 13" descr=""/>
+        <xdr:cNvPr id="23" name="Изображение 18" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1411,7 +1411,44 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7881480" y="32340600"/>
+          <a:off x="7881480" y="20334600"/>
+          <a:ext cx="5079600" cy="2349000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2383560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>16560</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>4732560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Изображение 24" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7927200" y="22718160"/>
           <a:ext cx="5079600" cy="2349000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1618,8 +1655,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A11" colorId="64" zoomScale="65" zoomScaleNormal="100" zoomScalePageLayoutView="65" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A8" colorId="64" zoomScale="65" zoomScaleNormal="100" zoomScalePageLayoutView="65" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="29.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1737,7 +1774,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="187.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="376.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
         <f aca="false">A8+1</f>
         <v>6</v>
@@ -2682,7 +2719,7 @@
   </sheetPr>
   <dimension ref="A1:AG48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="55" zoomScalePageLayoutView="65" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="55" zoomScalePageLayoutView="65" workbookViewId="0">
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
